--- a/src/test/resoures/CustBuyInfo.xlsx
+++ b/src/test/resoures/CustBuyInfo.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hub\howtestcore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang.zhou\IdeaProjects\howtestcore\src\test\resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A6D0A67-DE7A-48F2-A4AA-FAC7A3FF234F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF56B44C-6268-43A4-A46B-79667B8CC2AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170" xr2:uid="{EFF09413-38EC-4F55-A169-BB0DF1E873E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="柜台购买下单" sheetId="1" r:id="rId1"/>
+    <sheet name="网站购买下单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -909,7 +909,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
